--- a/src/test/resources/map.xlsx
+++ b/src/test/resources/map.xlsx
@@ -31,214 +31,214 @@
     <t>地址</t>
   </si>
   <si>
-    <t>mV</t>
-  </si>
-  <si>
-    <t>9566843397</t>
-  </si>
-  <si>
-    <t>浙江-1039775588街道</t>
-  </si>
-  <si>
-    <t>2017-11-04 11:10:29</t>
-  </si>
-  <si>
-    <t>mH</t>
-  </si>
-  <si>
-    <t>11962615669</t>
-  </si>
-  <si>
-    <t>浙江-728781366街道</t>
-  </si>
-  <si>
-    <t>2017-12-04 02:48:29</t>
-  </si>
-  <si>
-    <t>iO</t>
-  </si>
-  <si>
-    <t>9865789078</t>
-  </si>
-  <si>
-    <t>浙江-813556618街道</t>
-  </si>
-  <si>
-    <t>2017-11-27 19:00:49</t>
-  </si>
-  <si>
-    <t>pG</t>
-  </si>
-  <si>
-    <t>11908704258</t>
-  </si>
-  <si>
-    <t>浙江636006858街道</t>
-  </si>
-  <si>
-    <t>2017-12-21 08:07:33</t>
-  </si>
-  <si>
-    <t>nE</t>
-  </si>
-  <si>
-    <t>11969729516</t>
-  </si>
-  <si>
-    <t>浙江1804357298街道</t>
-  </si>
-  <si>
-    <t>2017-11-19 20:34:15</t>
-  </si>
-  <si>
-    <t>dF</t>
-  </si>
-  <si>
-    <t>11717542620</t>
-  </si>
-  <si>
-    <t>浙江-2019393564街道</t>
-  </si>
-  <si>
-    <t>2017-11-08 00:10:37</t>
-  </si>
-  <si>
-    <t>tN</t>
-  </si>
-  <si>
-    <t>10816141741</t>
-  </si>
-  <si>
-    <t>浙江-411981775街道</t>
-  </si>
-  <si>
-    <t>2017-11-24 23:07:02</t>
-  </si>
-  <si>
-    <t>pF</t>
-  </si>
-  <si>
-    <t>10210612420</t>
-  </si>
-  <si>
-    <t>浙江1924847882街道</t>
-  </si>
-  <si>
-    <t>2017-12-10 00:09:30</t>
-  </si>
-  <si>
-    <t>tU</t>
-  </si>
-  <si>
-    <t>12081067666</t>
-  </si>
-  <si>
-    <t>浙江1385039190街道</t>
-  </si>
-  <si>
-    <t>2017-12-15 01:35:46</t>
-  </si>
-  <si>
-    <t>nH</t>
-  </si>
-  <si>
-    <t>10084511053</t>
-  </si>
-  <si>
-    <t>浙江634223219街道</t>
-  </si>
-  <si>
-    <t>2017-11-11 12:43:35</t>
-  </si>
-  <si>
-    <t>mT</t>
-  </si>
-  <si>
-    <t>8503227376</t>
-  </si>
-  <si>
-    <t>浙江186593888街道</t>
-  </si>
-  <si>
-    <t>dY</t>
-  </si>
-  <si>
-    <t>8964284202</t>
-  </si>
-  <si>
-    <t>浙江-607655813街道</t>
-  </si>
-  <si>
-    <t>pA</t>
-  </si>
-  <si>
-    <t>10947776072</t>
-  </si>
-  <si>
-    <t>浙江1727715456街道</t>
-  </si>
-  <si>
-    <t>aL</t>
-  </si>
-  <si>
-    <t>8025495285</t>
-  </si>
-  <si>
-    <t>浙江-871415142街道</t>
-  </si>
-  <si>
-    <t>vM</t>
-  </si>
-  <si>
-    <t>8181474909</t>
-  </si>
-  <si>
-    <t>浙江-278758460街道</t>
-  </si>
-  <si>
-    <t>bP</t>
-  </si>
-  <si>
-    <t>11192753663</t>
-  </si>
-  <si>
-    <t>浙江1069168803街道</t>
-  </si>
-  <si>
-    <t>zK</t>
-  </si>
-  <si>
-    <t>8120358580</t>
-  </si>
-  <si>
-    <t>浙江-620256861街道</t>
-  </si>
-  <si>
-    <t>qD</t>
-  </si>
-  <si>
-    <t>10542773759</t>
-  </si>
-  <si>
-    <t>浙江-1640698796街道</t>
-  </si>
-  <si>
-    <t>eH</t>
-  </si>
-  <si>
-    <t>9787376023</t>
-  </si>
-  <si>
-    <t>浙江-465930745街道</t>
-  </si>
-  <si>
-    <t>dB</t>
-  </si>
-  <si>
-    <t>9825738035</t>
-  </si>
-  <si>
-    <t>浙江820485029街道</t>
+    <t>oW</t>
+  </si>
+  <si>
+    <t>11501230409</t>
+  </si>
+  <si>
+    <t>浙江219468632街道</t>
+  </si>
+  <si>
+    <t>2017-11-17 14:51:43</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>9189347558</t>
+  </si>
+  <si>
+    <t>浙江-286693639街道</t>
+  </si>
+  <si>
+    <t>2017-11-14 22:55:36</t>
+  </si>
+  <si>
+    <t>bL</t>
+  </si>
+  <si>
+    <t>8318829147</t>
+  </si>
+  <si>
+    <t>浙江1452189467街道</t>
+  </si>
+  <si>
+    <t>2017-12-18 10:51:17</t>
+  </si>
+  <si>
+    <t>eS</t>
+  </si>
+  <si>
+    <t>8886219482</t>
+  </si>
+  <si>
+    <t>浙江-908950122街道</t>
+  </si>
+  <si>
+    <t>2017-11-29 12:41:37</t>
+  </si>
+  <si>
+    <t>hK</t>
+  </si>
+  <si>
+    <t>10671439727</t>
+  </si>
+  <si>
+    <t>浙江-1190566660街道</t>
+  </si>
+  <si>
+    <t>2017-12-22 14:12:28</t>
+  </si>
+  <si>
+    <t>mW</t>
+  </si>
+  <si>
+    <t>11325594242</t>
+  </si>
+  <si>
+    <t>浙江-918311335街道</t>
+  </si>
+  <si>
+    <t>2017-11-05 02:42:17</t>
+  </si>
+  <si>
+    <t>gX</t>
+  </si>
+  <si>
+    <t>9932361871</t>
+  </si>
+  <si>
+    <t>浙江-152748727街道</t>
+  </si>
+  <si>
+    <t>2017-11-10 10:17:14</t>
+  </si>
+  <si>
+    <t>kR</t>
+  </si>
+  <si>
+    <t>11679936548</t>
+  </si>
+  <si>
+    <t>浙江2131414593街道</t>
+  </si>
+  <si>
+    <t>2017-12-15 00:11:30</t>
+  </si>
+  <si>
+    <t>vJ</t>
+  </si>
+  <si>
+    <t>9818992924</t>
+  </si>
+  <si>
+    <t>浙江-1238246634街道</t>
+  </si>
+  <si>
+    <t>2017-11-04 13:36:13</t>
+  </si>
+  <si>
+    <t>mU</t>
+  </si>
+  <si>
+    <t>11213371163</t>
+  </si>
+  <si>
+    <t>浙江1613468114街道</t>
+  </si>
+  <si>
+    <t>2017-11-29 12:04:28</t>
+  </si>
+  <si>
+    <t>rY</t>
+  </si>
+  <si>
+    <t>8925768475</t>
+  </si>
+  <si>
+    <t>浙江858064840街道</t>
+  </si>
+  <si>
+    <t>vL</t>
+  </si>
+  <si>
+    <t>7876145792</t>
+  </si>
+  <si>
+    <t>浙江-826082206街道</t>
+  </si>
+  <si>
+    <t>oP</t>
+  </si>
+  <si>
+    <t>8866045470</t>
+  </si>
+  <si>
+    <t>浙江953316724街道</t>
+  </si>
+  <si>
+    <t>nV</t>
+  </si>
+  <si>
+    <t>9968950153</t>
+  </si>
+  <si>
+    <t>浙江143454474街道</t>
+  </si>
+  <si>
+    <t>cY</t>
+  </si>
+  <si>
+    <t>10860263439</t>
+  </si>
+  <si>
+    <t>浙江-1710344157街道</t>
+  </si>
+  <si>
+    <t>iE</t>
+  </si>
+  <si>
+    <t>10186803008</t>
+  </si>
+  <si>
+    <t>浙江1893601358街道</t>
+  </si>
+  <si>
+    <t>tS</t>
+  </si>
+  <si>
+    <t>8305066945</t>
+  </si>
+  <si>
+    <t>浙江-289801598街道</t>
+  </si>
+  <si>
+    <t>vD</t>
+  </si>
+  <si>
+    <t>9105397325</t>
+  </si>
+  <si>
+    <t>浙江459635522街道</t>
+  </si>
+  <si>
+    <t>lE</t>
+  </si>
+  <si>
+    <t>9409670924</t>
+  </si>
+  <si>
+    <t>浙江71215090街道</t>
+  </si>
+  <si>
+    <t>vB</t>
+  </si>
+  <si>
+    <t>8631311641</t>
+  </si>
+  <si>
+    <t>浙江-962071180街道</t>
   </si>
   <si>
     <t>字符串</t>
@@ -341,7 +341,7 @@
     <col min="2" max="2" width="12.0" customWidth="true"/>
     <col min="3" max="3" width="12.0" customWidth="true"/>
     <col min="4" max="4" width="21.0" customWidth="true"/>
-    <col min="5" max="5" width="33.0" customWidth="true"/>
+    <col min="5" max="5" width="29.0" customWidth="true"/>
     <col min="6" max="6" width="29.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -364,13 +364,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-7.20143894E8</v>
+        <v>1.53676682E8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>49.0</v>
+        <v>76.0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -384,13 +384,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-1.15134856E9</v>
+        <v>9.0066713E7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>57.0</v>
+        <v>41.0</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -404,13 +404,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-2.33698561E8</v>
+        <v>1.783310832E9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>14</v>
@@ -424,7 +424,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-7.42906931E8</v>
+        <v>-5.0035796E7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -444,13 +444,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>1.827379857E9</v>
+        <v>1.28058485E8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>71.0</v>
+        <v>96.0</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>22</v>
@@ -465,13 +465,13 @@
     <row r="7"/>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>1.565298759E9</v>
+        <v>-1.875799367E9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>12.0</v>
+        <v>61.0</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -485,13 +485,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>1.715409831E9</v>
+        <v>1.856062503E9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -505,13 +505,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>1.48003037E9</v>
+        <v>1.76916017E9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>34</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-9.30359523E8</v>
+        <v>1.25591592E8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>54.0</v>
+        <v>52.0</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -545,13 +545,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-2.91107599E8</v>
+        <v>1.138219194E9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>42</v>
@@ -579,7 +579,7 @@
     <col min="1" max="1" width="12.0" customWidth="true"/>
     <col min="2" max="2" width="12.0" customWidth="true"/>
     <col min="3" max="3" width="21.0" customWidth="true"/>
-    <col min="4" max="4" width="33.0" customWidth="true"/>
+    <col min="4" max="4" width="29.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -615,7 +615,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>49</v>
@@ -629,7 +629,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.0</v>
+        <v>57.0</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>52</v>
@@ -643,7 +643,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>55</v>
@@ -657,7 +657,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.0</v>
+        <v>96.0</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>58</v>
@@ -672,7 +672,7 @@
         <v>60</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>71.0</v>
+        <v>29.0</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>61</v>
@@ -686,7 +686,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>71.0</v>
+        <v>99.0</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>64</v>
@@ -700,7 +700,7 @@
         <v>66</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>32.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>67</v>
@@ -714,7 +714,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>66.0</v>
+        <v>98.0</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>70</v>
@@ -728,7 +728,7 @@
         <v>72</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>15.0</v>
+        <v>98.0</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>73</v>
@@ -760,53 +760,53 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="n">
-        <v>-5.64428512E8</v>
+        <v>-9.42859162E8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="n">
-        <v>-1.662394E7</v>
+        <v>-1.48962643E9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="n">
-        <v>-4.20214399E8</v>
+        <v>-1.966867369E9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="n">
-        <v>-1.406805467E9</v>
+        <v>-1.995880692E9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="n">
-        <v>-4.12804837E8</v>
+        <v>6.38055899E8</v>
       </c>
     </row>
     <row r="7"/>
     <row r="8">
       <c r="A8" s="6" t="n">
-        <v>-6.49941439E8</v>
+        <v>2.020153E7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n">
-        <v>6.54561483E8</v>
+        <v>-1.5159445E9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n">
-        <v>1.975843696E9</v>
+        <v>-2.141640118E9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n">
-        <v>-1.943115565E9</v>
+        <v>5.75499692E8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n">
-        <v>1.11933138E9</v>
+        <v>2.129955995E9</v>
       </c>
     </row>
   </sheetData>
